--- a/static/template_en.xlsx
+++ b/static/template_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\PycharmProjects\PythonProject1\anthro-web\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C71FA-DEB3-49D8-9FD1-AC439FE07377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F984F9-ED2B-4E43-B2A9-157EE3130AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FD0E5E17-5FD6-4C4E-83A4-EA2AA6AF8D9F}"/>
   </bookViews>
@@ -117,19 +117,19 @@
     <t>TDS</t>
   </si>
   <si>
-    <t>Születési dátum</t>
-  </si>
-  <si>
-    <t>Mérés dátuma</t>
-  </si>
-  <si>
     <t>TTS</t>
   </si>
   <si>
-    <t>Név</t>
-  </si>
-  <si>
-    <t>Nem</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Birth date</t>
+  </si>
+  <si>
+    <t>Measurement date</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -202,11 +202,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -524,7 +523,7 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -534,101 +533,101 @@
     <col min="5" max="32" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="8" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>22</v>
       </c>
     </row>

--- a/static/template_en.xlsx
+++ b/static/template_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\PycharmProjects\PythonProject1\anthro-web\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F984F9-ED2B-4E43-B2A9-157EE3130AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4013522-6615-4F83-A4BB-98E3C81BC22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FD0E5E17-5FD6-4C4E-83A4-EA2AA6AF8D9F}"/>
   </bookViews>
@@ -105,21 +105,12 @@
     <t>BoSZ</t>
   </si>
   <si>
-    <t>TTM</t>
-  </si>
-  <si>
-    <t>ÜLŐ</t>
-  </si>
-  <si>
     <t>HUS</t>
   </si>
   <si>
     <t>TDS</t>
   </si>
   <si>
-    <t>TTS</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -130,6 +121,15 @@
   </si>
   <si>
     <t>Measurement date</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Sitting height</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -535,25 +535,25 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>19</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD1" s="11" t="s">
         <v>20</v>
